--- a/branches/riziv/StructureDefinition-MedRecordOrder.xlsx
+++ b/branches/riziv/StructureDefinition-MedRecordOrder.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$84</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2609" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2997" uniqueCount="512">
   <si>
     <t>Path</t>
   </si>
@@ -508,18 +508,100 @@
     <t>treatmentPlan</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/treatmentPlan}
+    <t xml:space="preserve">Extension {event-basedOn}
 </t>
   </si>
   <si>
-    <t>Based On</t>
-  </si>
-  <si>
-    <t>The Medication Treatment that this resource belongs to or is based on</t>
+    <t>Fulfills plan, proposal or order</t>
+  </si>
+  <si>
+    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
+  </si>
+  <si>
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>ORC in proximity to EVN segment</t>
+  </si>
+  <si>
+    <t>MedicationRequest.extension.id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.extension.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/event-basedOn</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>MedicationRequest.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>valueReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan)
+</t>
+  </si>
+  <si>
+    <t>basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/related-tl}
+</t>
+  </si>
+  <si>
+    <t>Based On Extension</t>
+  </si>
+  <si>
+    <t>Extension for connecting several resources to a single Treatment Line</t>
+  </si>
+  <si>
+    <t>http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/related-tl</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
     <t>MedicationRequest.modifierExtension</t>
@@ -768,13 +850,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
   </si>
   <si>
     <t>Request.code</t>
@@ -1699,7 +1774,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN73"/>
+  <dimension ref="A1:AN84"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3785,60 +3860,56 @@
         <v>80</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>44</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>162</v>
+        <v>66</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>44</v>
       </c>
@@ -3886,39 +3957,39 @@
         <v>44</v>
       </c>
       <c r="AE19" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" hidden="true">
+      <c r="A20" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3929,10 +4000,10 @@
         <v>42</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>44</v>
@@ -3941,17 +4012,15 @@
         <v>44</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>167</v>
+        <v>72</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>44</v>
@@ -3988,19 +4057,19 @@
         <v>44</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -4012,27 +4081,27 @@
         <v>44</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>171</v>
+        <v>44</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>172</v>
+        <v>44</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>173</v>
+        <v>44</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>174</v>
+        <v>44</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>175</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4046,25 +4115,25 @@
         <v>52</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4072,7 +4141,7 @@
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>44</v>
@@ -4090,13 +4159,13 @@
         <v>44</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>181</v>
+        <v>44</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>182</v>
+        <v>44</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>44</v>
@@ -4114,7 +4183,7 @@
         <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>52</v>
@@ -4126,27 +4195,27 @@
         <v>44</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>183</v>
+        <v>44</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>184</v>
+        <v>44</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>186</v>
+        <v>44</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4154,13 +4223,13 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>44</v>
@@ -4169,17 +4238,15 @@
         <v>44</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>44</v>
@@ -4204,31 +4271,29 @@
         <v>44</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>192</v>
+        <v>44</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>193</v>
+        <v>44</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>44</v>
+        <v>177</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -4243,13 +4308,13 @@
         <v>64</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>194</v>
+        <v>44</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>44</v>
@@ -4258,11 +4323,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="C23" t="s" s="2">
         <v>44</v>
       </c>
@@ -4274,26 +4341,24 @@
         <v>52</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>44</v>
@@ -4318,13 +4383,13 @@
         <v>44</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>200</v>
+        <v>44</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>201</v>
+        <v>44</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>44</v>
@@ -4342,10 +4407,10 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>52</v>
@@ -4357,26 +4422,28 @@
         <v>64</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>202</v>
+        <v>44</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>203</v>
+        <v>151</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>204</v>
+        <v>44</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="B24" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="C24" t="s" s="2">
         <v>44</v>
       </c>
@@ -4385,10 +4452,10 @@
         <v>42</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>44</v>
@@ -4397,17 +4464,15 @@
         <v>44</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>44</v>
@@ -4432,13 +4497,13 @@
         <v>44</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>209</v>
+        <v>44</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>210</v>
+        <v>44</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>44</v>
@@ -4456,7 +4521,7 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -4465,22 +4530,22 @@
         <v>43</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>211</v>
+        <v>44</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>212</v>
+        <v>44</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>204</v>
+        <v>44</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>44</v>
@@ -4488,7 +4553,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4508,16 +4573,16 @@
         <v>44</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>214</v>
+        <v>66</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>215</v>
+        <v>67</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4544,13 +4609,13 @@
         <v>44</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>216</v>
+        <v>44</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>217</v>
+        <v>44</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>44</v>
@@ -4568,7 +4633,7 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>213</v>
+        <v>68</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4580,19 +4645,19 @@
         <v>44</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>218</v>
+        <v>44</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>219</v>
+        <v>69</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>220</v>
+        <v>44</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>44</v>
@@ -4600,7 +4665,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>221</v>
+        <v>165</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4611,29 +4676,27 @@
         <v>42</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>223</v>
+        <v>153</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>44</v>
@@ -4670,31 +4733,31 @@
         <v>44</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>221</v>
+        <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>44</v>
@@ -4703,7 +4766,7 @@
         <v>44</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>226</v>
+        <v>44</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>44</v>
@@ -4714,7 +4777,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>227</v>
+        <v>166</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4722,7 +4785,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>52</v>
@@ -4734,25 +4797,27 @@
         <v>44</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>228</v>
+        <v>94</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>229</v>
+        <v>167</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>44</v>
+        <v>185</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>44</v>
@@ -4794,10 +4859,10 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>52</v>
@@ -4806,7 +4871,7 @@
         <v>44</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>44</v>
@@ -4815,7 +4880,7 @@
         <v>44</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>231</v>
+        <v>151</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>44</v>
@@ -4826,7 +4891,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>232</v>
+        <v>172</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4834,7 +4899,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>52</v>
@@ -4846,20 +4911,18 @@
         <v>44</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>233</v>
+        <v>173</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>234</v>
+        <v>174</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>44</v>
@@ -4884,32 +4947,32 @@
         <v>44</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>237</v>
+        <v>44</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>238</v>
+        <v>44</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>239</v>
+        <v>176</v>
       </c>
       <c r="AB28" s="2"/>
       <c r="AC28" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>240</v>
+        <v>177</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>232</v>
+        <v>178</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>52</v>
@@ -4921,27 +4984,27 @@
         <v>64</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>241</v>
+        <v>44</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>242</v>
+        <v>44</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>243</v>
+        <v>151</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>244</v>
+        <v>44</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>245</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>232</v>
+        <v>172</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>246</v>
+        <v>179</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>44</v>
@@ -4954,26 +5017,24 @@
         <v>52</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>234</v>
+        <v>174</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>44</v>
@@ -4998,13 +5059,13 @@
         <v>44</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>237</v>
+        <v>44</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>238</v>
+        <v>44</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>44</v>
@@ -5022,10 +5083,10 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>232</v>
+        <v>178</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>52</v>
@@ -5037,60 +5098,60 @@
         <v>64</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>241</v>
+        <v>44</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>242</v>
+        <v>44</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>243</v>
+        <v>151</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>244</v>
+        <v>44</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>245</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G30" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H30" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="H30" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="I30" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>248</v>
+        <v>72</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>234</v>
+        <v>188</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>235</v>
+        <v>189</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>44</v>
       </c>
@@ -5138,39 +5199,39 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>241</v>
+        <v>44</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>242</v>
+        <v>44</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>243</v>
+        <v>151</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>244</v>
+        <v>44</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>245</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>249</v>
+        <v>192</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5178,10 +5239,10 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>53</v>
@@ -5190,19 +5251,19 @@
         <v>44</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>250</v>
+        <v>193</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>251</v>
+        <v>194</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>252</v>
+        <v>195</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>253</v>
+        <v>196</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5252,13 +5313,13 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>249</v>
+        <v>192</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>44</v>
@@ -5267,24 +5328,24 @@
         <v>64</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>254</v>
+        <v>197</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>255</v>
+        <v>198</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>256</v>
+        <v>199</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>257</v>
+        <v>200</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>258</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>259</v>
+        <v>202</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5292,7 +5353,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>52</v>
@@ -5301,22 +5362,22 @@
         <v>53</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>260</v>
+        <v>128</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>261</v>
+        <v>203</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>262</v>
+        <v>204</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>263</v>
+        <v>205</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5342,13 +5403,13 @@
         <v>44</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>44</v>
+        <v>207</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>44</v>
+        <v>208</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>44</v>
@@ -5366,10 +5427,10 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>259</v>
+        <v>202</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>52</v>
@@ -5381,24 +5442,24 @@
         <v>64</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>264</v>
+        <v>209</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>265</v>
+        <v>211</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>266</v>
+        <v>212</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>267</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>268</v>
+        <v>213</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5409,10 +5470,10 @@
         <v>42</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>44</v>
@@ -5421,15 +5482,17 @@
         <v>44</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>269</v>
+        <v>214</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>270</v>
+        <v>215</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>44</v>
@@ -5454,13 +5517,13 @@
         <v>44</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>44</v>
+        <v>218</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>44</v>
+        <v>219</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>44</v>
@@ -5478,13 +5541,13 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>268</v>
+        <v>213</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>44</v>
@@ -5493,16 +5556,16 @@
         <v>64</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>272</v>
+        <v>220</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>273</v>
+        <v>221</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>266</v>
+        <v>44</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>44</v>
@@ -5510,7 +5573,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>274</v>
+        <v>222</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5518,7 +5581,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>52</v>
@@ -5527,21 +5590,23 @@
         <v>53</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>275</v>
+        <v>128</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>276</v>
+        <v>223</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>44</v>
@@ -5566,13 +5631,13 @@
         <v>44</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>44</v>
+        <v>226</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>44</v>
+        <v>227</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>44</v>
@@ -5590,10 +5655,10 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>274</v>
+        <v>222</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>52</v>
@@ -5605,24 +5670,24 @@
         <v>64</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>278</v>
+        <v>228</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>279</v>
+        <v>44</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>280</v>
+        <v>229</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>281</v>
+        <v>230</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>282</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>283</v>
+        <v>231</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5633,27 +5698,29 @@
         <v>42</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>284</v>
+        <v>214</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>44</v>
@@ -5678,13 +5745,13 @@
         <v>44</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>44</v>
+        <v>235</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>44</v>
+        <v>236</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>44</v>
@@ -5702,13 +5769,13 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>283</v>
+        <v>231</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>44</v>
@@ -5717,16 +5784,16 @@
         <v>64</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>287</v>
+        <v>44</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>44</v>
+        <v>237</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>288</v>
+        <v>230</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>44</v>
@@ -5734,7 +5801,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>289</v>
+        <v>239</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5754,16 +5821,16 @@
         <v>44</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>290</v>
+        <v>128</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>291</v>
+        <v>240</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5790,13 +5857,13 @@
         <v>44</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>44</v>
+        <v>242</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>44</v>
+        <v>243</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>44</v>
@@ -5814,7 +5881,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>289</v>
+        <v>239</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5829,16 +5896,16 @@
         <v>64</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>293</v>
+        <v>244</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>294</v>
+        <v>245</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>295</v>
+        <v>246</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>44</v>
@@ -5846,7 +5913,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>296</v>
+        <v>247</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5863,22 +5930,22 @@
         <v>44</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>297</v>
+        <v>249</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>298</v>
+        <v>250</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>299</v>
+        <v>251</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5904,13 +5971,13 @@
         <v>44</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>300</v>
+        <v>44</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>301</v>
+        <v>44</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>44</v>
@@ -5928,7 +5995,7 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>296</v>
+        <v>247</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5943,13 +6010,13 @@
         <v>64</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>302</v>
+        <v>44</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>303</v>
+        <v>252</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>44</v>
@@ -5960,7 +6027,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>304</v>
+        <v>253</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5980,16 +6047,16 @@
         <v>44</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>305</v>
+        <v>254</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>306</v>
+        <v>255</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>307</v>
+        <v>256</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6040,7 +6107,7 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>304</v>
+        <v>253</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -6061,18 +6128,18 @@
         <v>44</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>308</v>
+        <v>257</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>309</v>
+        <v>44</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>310</v>
+        <v>258</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6080,31 +6147,31 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="H39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="J39" t="s" s="2">
-        <v>188</v>
+        <v>259</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>311</v>
+        <v>260</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>312</v>
+        <v>261</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>313</v>
+        <v>262</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6133,34 +6200,32 @@
         <v>118</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>314</v>
+        <v>263</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>315</v>
+        <v>264</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="AB39" s="2"/>
       <c r="AC39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>44</v>
+        <v>177</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>310</v>
+        <v>258</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>44</v>
@@ -6169,26 +6234,28 @@
         <v>64</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>316</v>
+        <v>265</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>317</v>
+        <v>266</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>318</v>
+        <v>267</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>319</v>
+        <v>268</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>320</v>
+        <v>269</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="B40" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="C40" t="s" s="2">
         <v>44</v>
       </c>
@@ -6197,28 +6264,28 @@
         <v>42</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>322</v>
+        <v>214</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>323</v>
+        <v>260</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>324</v>
+        <v>261</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6244,13 +6311,13 @@
         <v>44</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>44</v>
+        <v>263</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>44</v>
+        <v>264</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>44</v>
@@ -6268,13 +6335,13 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>321</v>
+        <v>258</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>44</v>
@@ -6283,26 +6350,28 @@
         <v>64</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>326</v>
+        <v>265</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>184</v>
+        <v>266</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>327</v>
+        <v>267</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>319</v>
+        <v>268</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>44</v>
+        <v>269</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="B41" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="C41" t="s" s="2">
         <v>44</v>
       </c>
@@ -6311,10 +6380,10 @@
         <v>42</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>44</v>
@@ -6323,15 +6392,17 @@
         <v>53</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>329</v>
+        <v>272</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>330</v>
+        <v>260</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>44</v>
@@ -6380,13 +6451,13 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>328</v>
+        <v>258</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>44</v>
@@ -6395,24 +6466,24 @@
         <v>64</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>332</v>
+        <v>265</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>44</v>
+        <v>266</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>333</v>
+        <v>267</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>44</v>
+        <v>268</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>44</v>
+        <v>269</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>334</v>
+        <v>273</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6420,13 +6491,13 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>44</v>
@@ -6435,15 +6506,17 @@
         <v>53</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>94</v>
+        <v>274</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>335</v>
+        <v>275</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>44</v>
@@ -6492,13 +6565,13 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>334</v>
+        <v>273</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>44</v>
@@ -6507,24 +6580,24 @@
         <v>64</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>44</v>
+        <v>278</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>44</v>
+        <v>279</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>333</v>
+        <v>280</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>44</v>
+        <v>281</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>44</v>
+        <v>282</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>337</v>
+        <v>283</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6535,27 +6608,29 @@
         <v>42</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>338</v>
+        <v>284</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>339</v>
+        <v>285</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>44</v>
@@ -6604,13 +6679,13 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>337</v>
+        <v>283</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>44</v>
@@ -6619,24 +6694,24 @@
         <v>64</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>341</v>
+        <v>288</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>44</v>
+        <v>210</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>342</v>
+        <v>289</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>44</v>
+        <v>290</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>44</v>
+        <v>291</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>343</v>
+        <v>292</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6647,30 +6722,28 @@
         <v>42</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>167</v>
+        <v>293</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>344</v>
+        <v>294</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>345</v>
+        <v>295</v>
       </c>
       <c r="M44" s="2"/>
-      <c r="N44" t="s" s="2">
-        <v>346</v>
-      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>44</v>
       </c>
@@ -6718,13 +6791,13 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>343</v>
+        <v>292</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>44</v>
@@ -6733,24 +6806,24 @@
         <v>64</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>347</v>
+        <v>296</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>348</v>
+        <v>297</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>44</v>
+        <v>290</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>349</v>
+        <v>298</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6764,26 +6837,24 @@
         <v>52</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>188</v>
+        <v>299</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>44</v>
@@ -6808,13 +6879,13 @@
         <v>44</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>353</v>
+        <v>44</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>354</v>
+        <v>44</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>44</v>
@@ -6832,7 +6903,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>349</v>
+        <v>298</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6847,24 +6918,24 @@
         <v>64</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>44</v>
+        <v>302</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>44</v>
+        <v>303</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>355</v>
+        <v>304</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>44</v>
+        <v>305</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>44</v>
+        <v>306</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>356</v>
+        <v>307</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6875,25 +6946,25 @@
         <v>42</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>357</v>
+        <v>308</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>358</v>
+        <v>309</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>359</v>
+        <v>310</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6944,13 +7015,13 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>356</v>
+        <v>307</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>44</v>
@@ -6959,24 +7030,24 @@
         <v>64</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>360</v>
+        <v>311</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>361</v>
+        <v>280</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>44</v>
+        <v>312</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>362</v>
+        <v>313</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6987,10 +7058,10 @@
         <v>42</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>44</v>
@@ -6999,13 +7070,13 @@
         <v>44</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>363</v>
+        <v>314</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>364</v>
+        <v>315</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>365</v>
+        <v>316</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7056,13 +7127,13 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>362</v>
+        <v>313</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>44</v>
@@ -7071,24 +7142,24 @@
         <v>64</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>366</v>
+        <v>317</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>367</v>
+        <v>44</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>368</v>
+        <v>318</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>44</v>
+        <v>319</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>369</v>
+        <v>320</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7099,28 +7170,28 @@
         <v>42</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I48" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="H48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="J48" t="s" s="2">
-        <v>370</v>
+        <v>214</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>371</v>
+        <v>321</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>372</v>
+        <v>322</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>373</v>
+        <v>323</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7146,13 +7217,13 @@
         <v>44</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>44</v>
+        <v>324</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>44</v>
+        <v>325</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>44</v>
@@ -7170,13 +7241,13 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>369</v>
+        <v>320</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>44</v>
@@ -7185,13 +7256,13 @@
         <v>64</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>374</v>
+        <v>326</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>375</v>
+        <v>327</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>44</v>
@@ -7202,7 +7273,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>376</v>
+        <v>328</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7225,13 +7296,13 @@
         <v>44</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>377</v>
+        <v>329</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>378</v>
+        <v>330</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>379</v>
+        <v>331</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7282,7 +7353,7 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>376</v>
+        <v>328</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7300,21 +7371,21 @@
         <v>44</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>380</v>
+        <v>44</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>381</v>
+        <v>332</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>44</v>
+        <v>333</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>382</v>
+        <v>334</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7325,10 +7396,10 @@
         <v>42</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>44</v>
@@ -7337,15 +7408,17 @@
         <v>44</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>54</v>
+        <v>214</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>66</v>
+        <v>335</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>44</v>
@@ -7370,13 +7443,13 @@
         <v>44</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>44</v>
+        <v>338</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>44</v>
+        <v>339</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>44</v>
@@ -7394,43 +7467,43 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>68</v>
+        <v>334</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>44</v>
+        <v>340</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>44</v>
+        <v>341</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>69</v>
+        <v>342</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>44</v>
+        <v>343</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>44</v>
+        <v>344</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>383</v>
+        <v>345</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7449,16 +7522,16 @@
         <v>44</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>72</v>
+        <v>346</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>73</v>
+        <v>347</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>74</v>
+        <v>348</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>75</v>
+        <v>349</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7508,7 +7581,7 @@
         <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7520,19 +7593,19 @@
         <v>44</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>44</v>
+        <v>350</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>44</v>
+        <v>210</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>69</v>
+        <v>351</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>44</v>
+        <v>343</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>44</v>
@@ -7540,11 +7613,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>385</v>
+        <v>44</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7557,26 +7630,22 @@
         <v>44</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>72</v>
+        <v>353</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>44</v>
       </c>
@@ -7624,7 +7693,7 @@
         <v>44</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>388</v>
+        <v>352</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7636,16 +7705,16 @@
         <v>44</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>44</v>
+        <v>356</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>151</v>
+        <v>357</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>44</v>
@@ -7656,7 +7725,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>389</v>
+        <v>358</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7667,7 +7736,7 @@
         <v>42</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>44</v>
@@ -7676,20 +7745,18 @@
         <v>44</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>377</v>
+        <v>94</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>390</v>
+        <v>359</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>392</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>44</v>
@@ -7738,13 +7805,13 @@
         <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>389</v>
+        <v>358</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>44</v>
@@ -7759,7 +7826,7 @@
         <v>44</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>393</v>
+        <v>357</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>44</v>
@@ -7768,9 +7835,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>394</v>
+        <v>361</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7781,25 +7848,25 @@
         <v>42</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>54</v>
+        <v>362</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>66</v>
+        <v>363</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>67</v>
+        <v>364</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7850,28 +7917,28 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>68</v>
+        <v>361</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>44</v>
+        <v>365</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>69</v>
+        <v>366</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>44</v>
@@ -7880,43 +7947,43 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>72</v>
+        <v>193</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>73</v>
+        <v>368</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>44</v>
       </c>
@@ -7964,28 +8031,28 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>79</v>
+        <v>367</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>44</v>
+        <v>371</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>69</v>
+        <v>372</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>44</v>
@@ -7996,43 +8063,41 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>385</v>
+        <v>44</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>72</v>
+        <v>214</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>44</v>
       </c>
@@ -8056,13 +8121,13 @@
         <v>44</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>44</v>
+        <v>377</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>44</v>
+        <v>378</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>44</v>
@@ -8080,19 +8145,19 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>44</v>
@@ -8101,7 +8166,7 @@
         <v>44</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>151</v>
+        <v>379</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>44</v>
@@ -8112,7 +8177,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8123,7 +8188,7 @@
         <v>42</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>44</v>
@@ -8135,13 +8200,13 @@
         <v>44</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8192,13 +8257,13 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>44</v>
@@ -8207,13 +8272,13 @@
         <v>64</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>44</v>
+        <v>384</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>44</v>
@@ -8222,9 +8287,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8235,10 +8300,10 @@
         <v>42</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>44</v>
@@ -8247,13 +8312,13 @@
         <v>44</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8304,13 +8369,13 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>44</v>
@@ -8319,13 +8384,13 @@
         <v>64</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>44</v>
+        <v>390</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>44</v>
+        <v>391</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>44</v>
@@ -8334,9 +8399,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8347,10 +8412,10 @@
         <v>42</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>44</v>
@@ -8359,15 +8424,17 @@
         <v>44</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>44</v>
@@ -8416,13 +8483,13 @@
         <v>44</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>44</v>
@@ -8431,13 +8498,13 @@
         <v>64</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>44</v>
+        <v>398</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>44</v>
@@ -8448,7 +8515,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8471,20 +8538,16 @@
         <v>44</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>415</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>44</v>
       </c>
@@ -8532,7 +8595,7 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8550,10 +8613,10 @@
         <v>44</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>44</v>
@@ -8564,7 +8627,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8587,17 +8650,15 @@
         <v>44</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>419</v>
+        <v>54</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>420</v>
+        <v>66</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>44</v>
@@ -8646,7 +8707,7 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>418</v>
+        <v>68</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8658,38 +8719,38 @@
         <v>44</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>423</v>
+        <v>44</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>424</v>
+        <v>69</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>425</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>44</v>
@@ -8701,15 +8762,17 @@
         <v>44</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>398</v>
+        <v>72</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>427</v>
+        <v>73</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>44</v>
@@ -8758,73 +8821,75 @@
         <v>44</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>426</v>
+        <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>429</v>
+        <v>44</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>430</v>
+        <v>69</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>431</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>432</v>
+        <v>408</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>44</v>
+        <v>409</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>403</v>
+        <v>72</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>44</v>
       </c>
@@ -8872,28 +8937,28 @@
         <v>44</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>432</v>
+        <v>412</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>436</v>
+        <v>44</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>437</v>
+        <v>151</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>44</v>
@@ -8904,7 +8969,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8927,15 +8992,17 @@
         <v>44</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>439</v>
+        <v>401</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>440</v>
+        <v>414</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>44</v>
@@ -8984,7 +9051,7 @@
         <v>44</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
@@ -9005,10 +9072,10 @@
         <v>44</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>442</v>
+        <v>417</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>309</v>
+        <v>44</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>44</v>
@@ -9016,7 +9083,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>443</v>
+        <v>418</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9039,13 +9106,13 @@
         <v>44</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>377</v>
+        <v>54</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>444</v>
+        <v>66</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>445</v>
+        <v>67</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9096,7 +9163,7 @@
         <v>44</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>443</v>
+        <v>68</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -9108,16 +9175,16 @@
         <v>44</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>446</v>
+        <v>44</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>447</v>
+        <v>69</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>44</v>
@@ -9128,18 +9195,18 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>448</v>
+        <v>419</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>44</v>
@@ -9151,15 +9218,17 @@
         <v>44</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>44</v>
@@ -9208,19 +9277,19 @@
         <v>44</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>44</v>
@@ -9240,11 +9309,11 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>449</v>
+        <v>420</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>71</v>
+        <v>409</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9257,24 +9326,26 @@
         <v>44</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J67" t="s" s="2">
         <v>72</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>73</v>
+        <v>410</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>74</v>
+        <v>411</v>
       </c>
       <c r="M67" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="N67" s="2"/>
+      <c r="N67" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>44</v>
       </c>
@@ -9322,7 +9393,7 @@
         <v>44</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>79</v>
+        <v>412</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
@@ -9343,7 +9414,7 @@
         <v>44</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>44</v>
@@ -9354,43 +9425,39 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>450</v>
+        <v>421</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>385</v>
+        <v>44</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>72</v>
+        <v>422</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>386</v>
+        <v>423</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>44</v>
       </c>
@@ -9438,19 +9505,19 @@
         <v>44</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>388</v>
+        <v>421</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>44</v>
@@ -9459,7 +9526,7 @@
         <v>44</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>151</v>
+        <v>425</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>44</v>
@@ -9470,7 +9537,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9478,7 +9545,7 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F69" t="s" s="2">
         <v>52</v>
@@ -9493,17 +9560,15 @@
         <v>44</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>452</v>
+        <v>427</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>453</v>
+        <v>428</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>455</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>44</v>
@@ -9528,13 +9593,13 @@
         <v>44</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>456</v>
+        <v>44</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>457</v>
+        <v>44</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>44</v>
@@ -9552,10 +9617,10 @@
         <v>44</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>52</v>
@@ -9570,21 +9635,21 @@
         <v>44</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>446</v>
+        <v>44</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>458</v>
+        <v>430</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>459</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>460</v>
+        <v>431</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9607,13 +9672,13 @@
         <v>44</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>188</v>
+        <v>427</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>461</v>
+        <v>432</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>462</v>
+        <v>433</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9640,13 +9705,13 @@
         <v>44</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>463</v>
+        <v>44</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>464</v>
+        <v>44</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>44</v>
@@ -9664,7 +9729,7 @@
         <v>44</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>460</v>
+        <v>431</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
@@ -9682,21 +9747,21 @@
         <v>44</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>465</v>
+        <v>44</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>466</v>
+        <v>430</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>467</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>468</v>
+        <v>434</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9719,16 +9784,20 @@
         <v>44</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>469</v>
+        <v>435</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>470</v>
+        <v>436</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>44</v>
       </c>
@@ -9776,7 +9845,7 @@
         <v>44</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>468</v>
+        <v>434</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
@@ -9791,13 +9860,13 @@
         <v>64</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>472</v>
+        <v>44</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>465</v>
+        <v>440</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>44</v>
@@ -9808,18 +9877,18 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>474</v>
+        <v>442</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>475</v>
+        <v>44</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>44</v>
@@ -9831,16 +9900,16 @@
         <v>44</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>476</v>
+        <v>443</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>478</v>
+        <v>445</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>479</v>
+        <v>446</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9890,13 +9959,13 @@
         <v>44</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>474</v>
+        <v>442</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>44</v>
@@ -9908,21 +9977,21 @@
         <v>44</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>44</v>
+        <v>447</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>480</v>
+        <v>448</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>44</v>
+        <v>449</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>481</v>
+        <v>450</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9933,7 +10002,7 @@
         <v>42</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>44</v>
@@ -9945,17 +10014,15 @@
         <v>44</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>482</v>
+        <v>422</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>483</v>
+        <v>451</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>485</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>44</v>
@@ -10004,13 +10071,13 @@
         <v>44</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>481</v>
+        <v>450</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>44</v>
@@ -10019,23 +10086,1269 @@
         <v>64</v>
       </c>
       <c r="AJ73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="AK73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL73" t="s" s="2">
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="X81" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="AM73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN73" t="s" s="2">
+      <c r="Y81" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN84" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN73">
+  <autoFilter ref="A1:AN84">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10045,7 +11358,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI72">
+  <conditionalFormatting sqref="A2:AI83">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
